--- a/data/LifetimeEarnings.xlsx
+++ b/data/LifetimeEarnings.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Projects/wealth-inequality-charts/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="17235" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="1900" windowWidth="22220" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="Lifetime Earnings" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="A">[1]CI!$A$7:$BL$313</definedName>
@@ -19,30 +23,20 @@
     <definedName name="B">#REF!</definedName>
     <definedName name="C_">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Non Hispanic white</t>
-  </si>
-  <si>
-    <t>Total Hispanic</t>
-  </si>
-  <si>
-    <t>Non Hispanic African American</t>
-  </si>
-  <si>
-    <t>Median Present Value of Lifetime Earnings at Age 61 for People Born 1943-1951, by Race/Ethnicity</t>
-  </si>
-  <si>
-    <t>Sources: Health and Retirement Study 1992-2012 matched to Summary Earnings Records 1951–2007. Calculations provided by Melissa Favreault, Urban Institute.</t>
-  </si>
-  <si>
-    <t>Note: 2013 dollars. These people are age 61 in 2004–2012.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <r>
       <rPr>
@@ -65,6 +59,83 @@
       <t>http://urbn.is/wealthcharts</t>
     </r>
   </si>
+  <si>
+    <t>Average Accumulated Real Lifetime Earnings at Age 58-62 for People Born 1950-54, by Gender and Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Hispanic any race</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Excludes people outside US for more than 10 years of adulthood; this is especially important for Hispanics, who are more likely foreign born. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Earnings are accumulated using assumed interest rates from the OASDI trustees report.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Melissa Favreault, Urban Institute's tabulations from the 2008 Survey of Income and Program Participation matched to Summary Earnings Records through 2012. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2015 dollars. These people are age 58-62 in 2012. </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -73,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +195,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -146,10 +232,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -172,9 +258,8 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -182,6 +267,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -205,6 +296,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -23622,47 +23716,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="HRS output"/>
-      <sheetName val="Figure All"/>
-      <sheetName val="Figure All (2)"/>
-      <sheetName val="Figure Men"/>
-      <sheetName val="Figure Women"/>
-      <sheetName val="compare"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="11">
-          <cell r="C11">
-            <v>367052</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="E70">
-            <v>2021970.9</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="E71">
-            <v>1508203.7</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -23711,12 +23764,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -23746,12 +23799,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -23955,66 +24008,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2706000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1780000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="C7" s="5">
+        <v>2011000</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1118000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <f>'[2]HRS output'!E70</f>
-        <v>2021970.9</v>
-      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <f>'[2]HRS output'!E71</f>
-        <v>1508203.7</v>
-      </c>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1040793.7</v>
-      </c>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="http://urbn.is/wealthcharts"/>
+    <hyperlink ref="A26" r:id="rId1" display="http://urbn.is/wealthcharts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId2"/>

--- a/data/LifetimeEarnings.xlsx
+++ b/data/LifetimeEarnings.xlsx
@@ -60,9 +60,6 @@
     </r>
   </si>
   <si>
-    <t>Average Accumulated Real Lifetime Earnings at Age 58-62 for People Born 1950-54, by Gender and Race/Ethnicity</t>
-  </si>
-  <si>
     <t>Men</t>
   </si>
   <si>
@@ -99,6 +96,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Source:</t>
@@ -115,12 +113,16 @@
     </r>
   </si>
   <si>
+    <t>Average Accumulated Real Lifetime Earnings at Ages 58–62 for People Born 1950–54, by Gender and Race/Ethnicity</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Notes: </t>
@@ -133,7 +135,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">2015 dollars. These people are age 58-62 in 2012. </t>
+      <t xml:space="preserve">2015 dollars. These people are ages 58-62 in 2012. </t>
     </r>
   </si>
 </sst>
@@ -208,6 +210,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -24008,151 +24011,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2706000</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>2706000</v>
+        <v>1780000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="5"/>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2011000</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1780000</v>
-      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1518000</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
-        <v>2011000</v>
+        <v>1260000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>2</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C8" s="5">
+        <v>1118000</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1518000</v>
+      <c r="A10" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1260000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1118000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>7</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
       </c>
+      <c r="B12" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B13" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1" display="http://urbn.is/wealthcharts"/>
+    <hyperlink ref="A13" r:id="rId1" display="http://urbn.is/wealthcharts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId2"/>
